--- a/example/example1.xlsx
+++ b/example/example1.xlsx
@@ -13,7 +13,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="_-£* #,##0.00_-;-£* #,##0.00_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -21,6 +21,13 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <b/>
+      <u/>
+      <color rgb="FFFFFF"/>
     </font>
     <font>
       <sz val="12"/>
@@ -33,7 +40,7 @@
       <color rgb="FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none">
         <bgColor/>
@@ -41,6 +48,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125">
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60497B"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -76,7 +89,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -84,6 +97,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -423,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -435,89 +451,102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="str">
+      <c r="A1" s="2" t="str">
+        <v>example1.xlsx</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="str">
+        <v>Price List</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
         <v>SKU</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>Description</v>
       </c>
-      <c r="C1" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>Qty</v>
       </c>
-      <c r="D1" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <v>Price</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>SF9002</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>Widget Blue</v>
-      </c>
-      <c r="C2" s="5">
-        <v>180</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>SF9003</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <v>Widget Green</v>
-      </c>
-      <c r="C3" s="5">
-        <v>180</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>SF9004</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <v>Widget Red</v>
-      </c>
-      <c r="C4" s="5">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
-        <v>SF9055</v>
+        <v>SF9002</v>
       </c>
       <c r="B5" s="2" t="str">
-        <v>Widget Gold</v>
-      </c>
-      <c r="C5" s="5">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.24</v>
+        <v>Widget Blue</v>
+      </c>
+      <c r="C5" s="6">
+        <v>180</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="str">
+        <v>SF9003</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>Widget Green</v>
+      </c>
+      <c r="C6" s="6">
+        <v>180</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>SF9004</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>Widget Red</v>
+      </c>
+      <c r="C7" s="6">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="str">
+        <v>SF9055</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <v>Widget Gold</v>
+      </c>
+      <c r="C8" s="6">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="str">
         <v>SF9056</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B9" s="2" t="str">
         <v>Widget Silver</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C9" s="6" t="str">
         <v>null</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D9" s="7">
         <v>1337.29</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
 </worksheet>
 </file>